--- a/SWP/Week9/Docs/SWP_OnLineLearning_WeeklyReport_W7.xlsx
+++ b/SWP/Week9/Docs/SWP_OnLineLearning_WeeklyReport_W7.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="133">
   <si>
     <t>Total Project Tracking</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>11 fields - 6 transaction - medium</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1432,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2008,7 +2011,9 @@
       <c r="G7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="79"/>
+      <c r="H7" s="79" t="s">
+        <v>132</v>
+      </c>
       <c r="I7" s="109"/>
       <c r="J7" s="91">
         <v>3</v>
@@ -10676,25 +10681,25 @@
         <v>70</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1">
@@ -10719,23 +10724,23 @@
       <c r="G2" s="18">
         <v>45112</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
     </row>
     <row r="3" spans="1:26" ht="22.5" customHeight="1">
       <c r="A3" s="17">
@@ -10759,23 +10764,23 @@
       <c r="G3" s="18">
         <v>45112</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1">
       <c r="A4" s="17">
@@ -10799,23 +10804,23 @@
       <c r="G4" s="18">
         <v>45112</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
       <c r="A5" s="17">
@@ -10839,23 +10844,23 @@
       <c r="G5" s="18">
         <v>45112</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1">
       <c r="A6" s="17">
@@ -10879,23 +10884,23 @@
       <c r="G6" s="18">
         <v>45112</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1">
       <c r="A7" s="17">
@@ -10919,23 +10924,23 @@
       <c r="G7" s="18">
         <v>45112</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
     </row>
     <row r="8" spans="1:26" ht="22.5" customHeight="1">
       <c r="A8" s="17">
@@ -10959,23 +10964,23 @@
       <c r="G8" s="18">
         <v>45112</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
     </row>
     <row r="9" spans="1:26" ht="22.5" customHeight="1">
       <c r="A9" s="17">
@@ -10999,23 +11004,23 @@
       <c r="G9" s="18">
         <v>45112</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1">
       <c r="A10" s="17">
@@ -11039,23 +11044,23 @@
       <c r="G10" s="18">
         <v>45112</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1">
       <c r="A11" s="17">
@@ -11079,23 +11084,23 @@
       <c r="G11" s="18">
         <v>45112</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
     </row>
     <row r="12" spans="1:26" ht="24" customHeight="1">
       <c r="A12" s="17"/>
@@ -11105,23 +11110,23 @@
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="12"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="17"/>
@@ -11131,23 +11136,23 @@
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="12"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="17"/>
@@ -11157,23 +11162,23 @@
       <c r="E14" s="12"/>
       <c r="F14" s="27"/>
       <c r="G14" s="12"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="17"/>
@@ -11183,23 +11188,23 @@
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="12"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="17"/>
@@ -11209,23 +11214,23 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="12"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
     </row>
     <row r="17" spans="1:25" ht="14.25" customHeight="1">
       <c r="A17" s="17"/>
@@ -11235,23 +11240,23 @@
       <c r="E17" s="12"/>
       <c r="F17" s="27"/>
       <c r="G17" s="12"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
     </row>
     <row r="18" spans="1:25" ht="14.25" customHeight="1">
       <c r="A18" s="17"/>
@@ -11261,23 +11266,23 @@
       <c r="E18" s="12"/>
       <c r="F18" s="27"/>
       <c r="G18" s="12"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
     </row>
     <row r="19" spans="1:25" ht="14.25" customHeight="1">
       <c r="A19" s="17"/>
@@ -11287,23 +11292,23 @@
       <c r="E19" s="12"/>
       <c r="F19" s="27"/>
       <c r="G19" s="12"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1">
       <c r="A20" s="17"/>
@@ -11313,23 +11318,23 @@
       <c r="E20" s="12"/>
       <c r="F20" s="27"/>
       <c r="G20" s="12"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
     </row>
     <row r="21" spans="1:25" ht="14.25" customHeight="1">
       <c r="A21" s="17"/>
@@ -11339,23 +11344,23 @@
       <c r="E21" s="12"/>
       <c r="F21" s="27"/>
       <c r="G21" s="12"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
     </row>
     <row r="22" spans="1:25" ht="14.25" customHeight="1">
       <c r="A22" s="17"/>
@@ -11365,23 +11370,23 @@
       <c r="E22" s="12"/>
       <c r="F22" s="27"/>
       <c r="G22" s="12"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1">
       <c r="A23" s="17"/>
@@ -11391,23 +11396,23 @@
       <c r="E23" s="12"/>
       <c r="F23" s="27"/>
       <c r="G23" s="12"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
     </row>
     <row r="24" spans="1:25" ht="14.25" customHeight="1">
       <c r="A24" s="17"/>
@@ -11417,23 +11422,23 @@
       <c r="E24" s="12"/>
       <c r="F24" s="27"/>
       <c r="G24" s="12"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
     </row>
     <row r="25" spans="1:25" ht="14.25" customHeight="1">
       <c r="A25" s="17"/>
@@ -11443,23 +11448,23 @@
       <c r="E25" s="12"/>
       <c r="F25" s="27"/>
       <c r="G25" s="12"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1">
       <c r="A26" s="17"/>
@@ -11469,23 +11474,23 @@
       <c r="E26" s="12"/>
       <c r="F26" s="27"/>
       <c r="G26" s="12"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
     </row>
     <row r="27" spans="1:25" ht="14.25" customHeight="1">
       <c r="A27" s="17"/>
@@ -11495,23 +11500,23 @@
       <c r="E27" s="12"/>
       <c r="F27" s="27"/>
       <c r="G27" s="12"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
       <c r="A28" s="17"/>
@@ -11521,23 +11526,23 @@
       <c r="E28" s="12"/>
       <c r="F28" s="27"/>
       <c r="G28" s="12"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
     </row>
     <row r="29" spans="1:25" ht="14.25" customHeight="1">
       <c r="A29" s="17"/>
@@ -11547,23 +11552,23 @@
       <c r="E29" s="12"/>
       <c r="F29" s="27"/>
       <c r="G29" s="12"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
     </row>
     <row r="30" spans="1:25" ht="14.25" customHeight="1">
       <c r="A30" s="17"/>
@@ -11573,23 +11578,23 @@
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="12"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1">
       <c r="A31" s="17"/>
@@ -11599,23 +11604,23 @@
       <c r="E31" s="31"/>
       <c r="F31" s="32"/>
       <c r="G31" s="12"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1">
       <c r="A32" s="17"/>
@@ -11625,23 +11630,23 @@
       <c r="E32" s="31"/>
       <c r="F32" s="32"/>
       <c r="G32" s="12"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
     </row>
     <row r="33" spans="1:25" ht="14.25" customHeight="1">
       <c r="A33" s="17"/>
@@ -11651,23 +11656,23 @@
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
       <c r="G33" s="12"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
     </row>
     <row r="34" spans="1:25" ht="14.25" customHeight="1">
       <c r="A34" s="17"/>
@@ -11677,23 +11682,23 @@
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
       <c r="G34" s="12"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
     </row>
     <row r="35" spans="1:25" ht="14.25" customHeight="1">
       <c r="A35" s="17"/>
@@ -11703,23 +11708,23 @@
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
       <c r="G35" s="12"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
     </row>
     <row r="36" spans="1:25" ht="14.25" customHeight="1">
       <c r="A36" s="17"/>
@@ -11729,23 +11734,23 @@
       <c r="E36" s="31"/>
       <c r="F36" s="32"/>
       <c r="G36" s="12"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
       <c r="A37" s="17"/>
@@ -11755,23 +11760,23 @@
       <c r="E37" s="31"/>
       <c r="F37" s="32"/>
       <c r="G37" s="12"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
     </row>
     <row r="38" spans="1:25" ht="14.25" customHeight="1">
       <c r="A38" s="17"/>
@@ -11781,289 +11786,289 @@
       <c r="E38" s="31"/>
       <c r="F38" s="32"/>
       <c r="G38" s="12"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="110"/>
-      <c r="U38" s="110"/>
-      <c r="V38" s="110"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
     </row>
     <row r="39" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="110"/>
-      <c r="Y39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
     </row>
     <row r="40" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
     </row>
     <row r="41" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="110"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
     </row>
     <row r="42" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="110"/>
-      <c r="X42" s="110"/>
-      <c r="Y42" s="110"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
     </row>
     <row r="43" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="110"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="110"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
     </row>
     <row r="44" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
     </row>
     <row r="45" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
     </row>
     <row r="47" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
     </row>
     <row r="48" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
     </row>
     <row r="49" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="110"/>
-      <c r="X49" s="110"/>
-      <c r="Y49" s="110"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
     </row>
     <row r="50" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
     </row>
     <row r="51" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
     </row>
     <row r="52" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="110"/>
-      <c r="N52" s="110"/>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
-      <c r="S52" s="110"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
     </row>
     <row r="53" spans="9:25" ht="14.25" customHeight="1"/>
     <row r="54" spans="9:25" ht="14.25" customHeight="1"/>
@@ -15356,25 +15361,25 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21.75" customHeight="1">
@@ -15388,23 +15393,23 @@
         <v>78</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
     </row>
     <row r="3" spans="1:26" ht="21.75" customHeight="1">
       <c r="A3" s="3">
@@ -15417,23 +15422,23 @@
         <v>78</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1">
       <c r="A4" s="3">
@@ -15446,23 +15451,23 @@
         <v>78</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
       <c r="A5" s="3">
@@ -15475,23 +15480,23 @@
         <v>78</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1">
       <c r="A6" s="3">
@@ -15504,23 +15509,23 @@
         <v>78</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
       <c r="A7" s="3">
@@ -15533,23 +15538,23 @@
         <v>78</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1">
       <c r="A8" s="3">
@@ -15562,23 +15567,23 @@
         <v>78</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
     </row>
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
       <c r="A9" s="3">
@@ -15591,23 +15596,23 @@
         <v>78</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
       <c r="A10" s="3">
@@ -15620,23 +15625,23 @@
         <v>78</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="21.75" customHeight="1">
       <c r="A11" s="3">
@@ -15649,23 +15654,23 @@
         <v>78</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
     </row>
     <row r="12" spans="1:26" ht="21.75" customHeight="1">
       <c r="A12" s="5">
@@ -15678,23 +15683,23 @@
         <v>78</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
     </row>
     <row r="13" spans="1:26" ht="21.75" customHeight="1">
       <c r="A13" s="3">
@@ -15707,23 +15712,23 @@
         <v>78</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
     </row>
     <row r="14" spans="1:26" ht="21.75" customHeight="1">
       <c r="A14" s="3">
@@ -15736,23 +15741,23 @@
         <v>78</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
     </row>
     <row r="15" spans="1:26" ht="21.75" customHeight="1">
       <c r="A15" s="3">
@@ -15765,23 +15770,23 @@
         <v>78</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
     </row>
     <row r="16" spans="1:26" ht="21.75" customHeight="1">
       <c r="A16" s="3">
@@ -15794,23 +15799,23 @@
         <v>78</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
     </row>
     <row r="17" spans="1:25" ht="21.75" customHeight="1">
       <c r="A17" s="3">
@@ -15823,23 +15828,23 @@
         <v>78</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
     </row>
     <row r="18" spans="1:25" ht="21.75" customHeight="1">
       <c r="A18" s="3">
@@ -15852,23 +15857,23 @@
         <v>78</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
     </row>
     <row r="19" spans="1:25" ht="21.75" customHeight="1">
       <c r="A19" s="3">
@@ -15881,23 +15886,23 @@
         <v>78</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
     </row>
     <row r="20" spans="1:25" ht="21.75" customHeight="1">
       <c r="A20" s="3">
@@ -15910,23 +15915,23 @@
         <v>78</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1">
       <c r="A21" s="3">
@@ -15939,612 +15944,612 @@
         <v>78</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
     </row>
     <row r="22" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
     </row>
     <row r="24" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
     </row>
     <row r="25" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
     </row>
     <row r="27" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
     </row>
     <row r="29" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
     </row>
     <row r="30" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
     </row>
     <row r="33" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
     </row>
     <row r="34" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
     </row>
     <row r="35" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
     </row>
     <row r="36" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
     </row>
     <row r="37" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
     </row>
     <row r="38" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="110"/>
-      <c r="U38" s="110"/>
-      <c r="V38" s="110"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
     </row>
     <row r="39" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="110"/>
-      <c r="Y39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
     </row>
     <row r="40" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
     </row>
     <row r="41" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="110"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
     </row>
     <row r="42" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="110"/>
-      <c r="X42" s="110"/>
-      <c r="Y42" s="110"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
     </row>
     <row r="43" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="110"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="110"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
     </row>
     <row r="44" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
     </row>
     <row r="45" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
     </row>
     <row r="46" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
     </row>
     <row r="47" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
     </row>
     <row r="48" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
     </row>
     <row r="49" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="110"/>
-      <c r="X49" s="110"/>
-      <c r="Y49" s="110"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
     </row>
     <row r="50" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
     </row>
     <row r="51" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
     </row>
     <row r="52" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="110"/>
-      <c r="N52" s="110"/>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
-      <c r="S52" s="110"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
     </row>
     <row r="53" spans="9:25" ht="14.25" customHeight="1"/>
     <row r="54" spans="9:25" ht="14.25" customHeight="1"/>
@@ -17560,25 +17565,25 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21.75" customHeight="1">
@@ -17592,23 +17597,23 @@
         <v>78</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
     </row>
     <row r="3" spans="1:26" ht="21.75" customHeight="1">
       <c r="A3" s="3">
@@ -17621,23 +17626,23 @@
         <v>78</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1">
       <c r="A4" s="3">
@@ -17650,23 +17655,23 @@
         <v>78</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
       <c r="A5" s="3">
@@ -17679,23 +17684,23 @@
         <v>78</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1">
       <c r="A6" s="3">
@@ -17708,23 +17713,23 @@
         <v>78</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
       <c r="A7" s="3">
@@ -17737,23 +17742,23 @@
         <v>78</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1">
       <c r="A8" s="3">
@@ -17766,23 +17771,23 @@
         <v>78</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
     </row>
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
       <c r="A9" s="3">
@@ -17795,23 +17800,23 @@
         <v>78</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
       <c r="A10" s="3">
@@ -17824,23 +17829,23 @@
         <v>78</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="21.75" customHeight="1">
       <c r="A11" s="3">
@@ -17853,23 +17858,23 @@
         <v>78</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
     </row>
     <row r="12" spans="1:26" ht="21.75" customHeight="1">
       <c r="A12" s="5">
@@ -17882,23 +17887,23 @@
         <v>78</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
     </row>
     <row r="13" spans="1:26" ht="21.75" customHeight="1">
       <c r="A13" s="3">
@@ -17911,23 +17916,23 @@
         <v>78</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
     </row>
     <row r="14" spans="1:26" ht="21.75" customHeight="1">
       <c r="A14" s="3">
@@ -17940,23 +17945,23 @@
         <v>78</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
     </row>
     <row r="15" spans="1:26" ht="21.75" customHeight="1">
       <c r="A15" s="3">
@@ -17969,23 +17974,23 @@
         <v>78</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
     </row>
     <row r="16" spans="1:26" ht="21.75" customHeight="1">
       <c r="A16" s="3">
@@ -17998,23 +18003,23 @@
         <v>78</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
     </row>
     <row r="17" spans="1:25" ht="21.75" customHeight="1">
       <c r="A17" s="3">
@@ -18027,23 +18032,23 @@
         <v>78</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
     </row>
     <row r="18" spans="1:25" ht="21.75" customHeight="1">
       <c r="A18" s="3">
@@ -18056,23 +18061,23 @@
         <v>78</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
     </row>
     <row r="19" spans="1:25" ht="21.75" customHeight="1">
       <c r="A19" s="3">
@@ -18085,23 +18090,23 @@
         <v>78</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
     </row>
     <row r="20" spans="1:25" ht="21.75" customHeight="1">
       <c r="A20" s="3">
@@ -18114,23 +18119,23 @@
         <v>78</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
     </row>
     <row r="21" spans="1:25" ht="21.75" customHeight="1">
       <c r="A21" s="3">
@@ -18143,612 +18148,612 @@
         <v>78</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
     </row>
     <row r="22" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
     </row>
     <row r="24" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
     </row>
     <row r="25" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
     </row>
     <row r="27" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
     </row>
     <row r="29" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
     </row>
     <row r="30" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1">
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
     </row>
     <row r="33" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
     </row>
     <row r="34" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
     </row>
     <row r="35" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
     </row>
     <row r="36" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
     </row>
     <row r="37" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
     </row>
     <row r="38" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="110"/>
-      <c r="U38" s="110"/>
-      <c r="V38" s="110"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
     </row>
     <row r="39" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="110"/>
-      <c r="Y39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
     </row>
     <row r="40" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
     </row>
     <row r="41" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="110"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
     </row>
     <row r="42" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="110"/>
-      <c r="X42" s="110"/>
-      <c r="Y42" s="110"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
     </row>
     <row r="43" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="110"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="110"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
     </row>
     <row r="44" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
     </row>
     <row r="45" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
     </row>
     <row r="46" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
     </row>
     <row r="47" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
     </row>
     <row r="48" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
     </row>
     <row r="49" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="110"/>
-      <c r="X49" s="110"/>
-      <c r="Y49" s="110"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
     </row>
     <row r="50" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
     </row>
     <row r="51" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
     </row>
     <row r="52" spans="9:25" ht="14.25" customHeight="1">
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="110"/>
-      <c r="N52" s="110"/>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
-      <c r="S52" s="110"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
     </row>
     <row r="53" spans="9:25" ht="14.25" customHeight="1"/>
     <row r="54" spans="9:25" ht="14.25" customHeight="1"/>

--- a/SWP/Week9/Docs/SWP_OnLineLearning_WeeklyReport_W7.xlsx
+++ b/SWP/Week9/Docs/SWP_OnLineLearning_WeeklyReport_W7.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="172">
   <si>
     <t>Total Project Tracking</t>
   </si>
@@ -688,6 +688,51 @@
   </si>
   <si>
     <t>Screen/FunctionFeature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 fields - 5 transcations- complex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 fields - 2 transactions - medium </t>
+  </si>
+  <si>
+    <t>6 fields - 8 transaction - complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 fields - 11 transaction - complex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 fields - 17 transaction - complex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 fields - 4 transaction - medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">240 loc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 fields -8 transaction - complex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 fields - 6 transaction - medium </t>
+  </si>
+  <si>
+    <t>15 fields - 4 transaction - complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 fields - 5 transaction - medium </t>
+  </si>
+  <si>
+    <t>8 fields - 6 transaction - medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? Fields - 17 transaction - complex </t>
+  </si>
+  <si>
+    <t>? Fields - 7 transaction - medium</t>
+  </si>
+  <si>
+    <t>5 fields - 6 transaction -medium</t>
   </si>
 </sst>
 </file>
@@ -1763,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1948,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I5" s="89"/>
       <c r="J5" s="18">
@@ -2005,7 +2050,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="18">
@@ -2061,7 +2106,9 @@
       <c r="G7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="I7" s="89"/>
       <c r="J7" s="18">
         <v>3</v>
@@ -2100,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>35</v>
@@ -2114,7 +2161,9 @@
       <c r="G8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="I8" s="89"/>
       <c r="J8" s="18">
         <v>4</v>
@@ -2153,7 +2202,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>39</v>
@@ -2167,7 +2216,9 @@
       <c r="G9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="I9" s="89"/>
       <c r="J9" s="18">
         <v>6</v>
@@ -2206,7 +2257,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>44</v>
@@ -2220,7 +2271,9 @@
       <c r="G10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="I10" s="89"/>
       <c r="J10" s="23">
         <v>7</v>
@@ -2267,7 +2320,9 @@
       <c r="G11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="I11" s="89"/>
       <c r="J11" s="23">
         <v>8</v>
@@ -2314,7 +2369,9 @@
       <c r="G12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="I12" s="89"/>
       <c r="J12" s="29">
         <v>9</v>
@@ -2497,7 +2554,9 @@
       <c r="G17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="I17" s="89"/>
       <c r="J17" s="23">
         <v>1</v>
@@ -2553,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I18" s="89"/>
       <c r="J18" s="23">
@@ -2609,7 +2668,9 @@
       <c r="G19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="I19" s="89"/>
       <c r="J19" s="23">
         <v>3</v>
@@ -2662,7 +2723,9 @@
       <c r="G20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="I20" s="89"/>
       <c r="J20" s="23">
         <v>4</v>
@@ -2693,7 +2756,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="33" customHeight="1">
+    <row r="21" spans="1:26" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -2715,7 +2778,9 @@
       <c r="G21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="I21" s="89"/>
       <c r="J21" s="23">
         <v>5</v>
@@ -2746,29 +2811,29 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="21" customHeight="1">
+    <row r="22" spans="1:26" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="I22" s="89"/>
       <c r="J22" s="23">
         <v>6</v>
@@ -2801,16 +2866,16 @@
     </row>
     <row r="23" spans="1:26" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="14">
-        <v>7</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>88</v>
+        <v>8</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>60</v>
@@ -2819,7 +2884,9 @@
       <c r="G23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="I23" s="89"/>
       <c r="J23" s="23">
         <v>7</v>
@@ -2850,25 +2917,25 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="14">
-        <v>8</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="I24" s="89"/>
       <c r="J24" s="23">
         <v>6</v>
@@ -2900,24 +2967,14 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="14">
-        <v>9</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="89"/>
       <c r="J25" s="29">
         <v>9</v>
@@ -2936,15 +2993,15 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="89"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
@@ -2961,15 +3018,17 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A27" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="89"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2986,17 +3045,31 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1">
-      <c r="A28" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+    <row r="28" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A28" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>11</v>
+      </c>
       <c r="I28" s="89"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3013,31 +3086,29 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>11</v>
-      </c>
+    <row r="29" spans="1:26" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="22">
+        <v>1</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="89"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3054,29 +3125,31 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="33.75" customHeight="1">
+    <row r="30" spans="1:26" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="I30" s="89"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3093,18 +3166,18 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="30.75" customHeight="1">
+    <row r="31" spans="1:26" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>100</v>
@@ -3113,11 +3186,9 @@
         <v>16</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>18</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="89"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3134,18 +3205,18 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="30.75" customHeight="1">
+    <row r="32" spans="1:26" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>100</v>
@@ -3154,9 +3225,11 @@
         <v>16</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="I32" s="89"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3176,18 +3249,18 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:23" ht="30.75" customHeight="1">
+    <row r="33" spans="1:23" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>100</v>
@@ -3196,11 +3269,9 @@
         <v>16</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="89"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3217,18 +3288,18 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="33" customHeight="1">
+    <row r="34" spans="1:23" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="22">
-        <v>5</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>100</v>
@@ -3256,18 +3327,18 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="32.25" customHeight="1">
+    <row r="35" spans="1:23" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="22">
-        <v>6</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>111</v>
+      <c r="D35" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>100</v>
@@ -3276,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="89"/>
@@ -3295,18 +3366,18 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="31.5" customHeight="1">
+    <row r="36" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>100</v>
@@ -3334,27 +3405,17 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="30.75" customHeight="1">
+    <row r="37" spans="1:23" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="22">
-        <v>8</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="89"/>
@@ -3373,9 +3434,9 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="25.5" customHeight="1">
+    <row r="38" spans="1:23" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3402,19 +3463,17 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="27" customHeight="1">
-      <c r="A39" s="22">
-        <v>10</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="14"/>
+    <row r="39" spans="1:23" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A39" s="42">
+        <v>11</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="89"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3431,17 +3490,15 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A40" s="42">
-        <v>11</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+    <row r="40" spans="1:23" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="89"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -3458,15 +3515,15 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
+    <row r="41" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="89"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3483,7 +3540,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="14.25" customHeight="1">
+    <row r="42" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3508,7 +3565,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="14.25" customHeight="1">
+    <row r="43" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3533,7 +3590,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="14.25" customHeight="1">
+    <row r="44" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3558,7 +3615,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="14.25" customHeight="1">
+    <row r="45" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3583,7 +3640,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="14.25" customHeight="1">
+    <row r="46" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3608,7 +3665,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="14.25" customHeight="1">
+    <row r="47" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3633,7 +3690,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="14.25" customHeight="1">
+    <row r="48" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3658,7 +3715,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="14.25" customHeight="1">
+    <row r="49" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3683,7 +3740,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="14.25" customHeight="1">
+    <row r="50" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3708,7 +3765,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="14.25" customHeight="1">
+    <row r="51" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3733,7 +3790,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="14.25" customHeight="1">
+    <row r="52" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3758,7 +3815,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="14.25" customHeight="1">
+    <row r="53" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3783,7 +3840,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="14.25" customHeight="1">
+    <row r="54" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3808,7 +3865,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="14.25" customHeight="1">
+    <row r="55" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3833,7 +3890,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="14.25" customHeight="1">
+    <row r="56" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3858,7 +3915,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="14.25" customHeight="1">
+    <row r="57" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3883,7 +3940,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="14.25" customHeight="1">
+    <row r="58" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3908,7 +3965,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="14.25" customHeight="1">
+    <row r="59" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3933,7 +3990,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="14.25" customHeight="1">
+    <row r="60" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3958,7 +4015,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="14.25" customHeight="1">
+    <row r="61" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3983,7 +4040,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="14.25" customHeight="1">
+    <row r="62" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4008,7 +4065,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="14.25" customHeight="1">
+    <row r="63" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4033,7 +4090,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="14.25" customHeight="1">
+    <row r="64" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4058,7 +4115,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="14.25" customHeight="1">
+    <row r="65" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4083,7 +4140,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="14.25" customHeight="1">
+    <row r="66" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4108,7 +4165,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="14.25" customHeight="1">
+    <row r="67" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4133,7 +4190,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="14.25" customHeight="1">
+    <row r="68" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4158,7 +4215,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="14.25" customHeight="1">
+    <row r="69" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4183,7 +4240,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="14.25" customHeight="1">
+    <row r="70" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4208,7 +4265,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="14.25" customHeight="1">
+    <row r="71" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4233,7 +4290,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="14.25" customHeight="1">
+    <row r="72" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4258,7 +4315,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="14.25" customHeight="1">
+    <row r="73" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4283,7 +4340,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="14.25" customHeight="1">
+    <row r="74" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4308,7 +4365,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="14.25" customHeight="1">
+    <row r="75" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4333,7 +4390,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="14.25" customHeight="1">
+    <row r="76" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4358,7 +4415,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="14.25" customHeight="1">
+    <row r="77" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4383,7 +4440,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="14.25" customHeight="1">
+    <row r="78" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4408,7 +4465,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="14.25" customHeight="1">
+    <row r="79" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4433,7 +4490,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="14.25" customHeight="1">
+    <row r="80" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4458,7 +4515,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="14.25" customHeight="1">
+    <row r="81" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4483,7 +4540,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="14.25" customHeight="1">
+    <row r="82" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4508,7 +4565,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="14.25" customHeight="1">
+    <row r="83" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4533,7 +4590,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="14.25" customHeight="1">
+    <row r="84" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4558,7 +4615,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="14.25" customHeight="1">
+    <row r="85" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4583,7 +4640,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="14.25" customHeight="1">
+    <row r="86" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4608,7 +4665,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="14.25" customHeight="1">
+    <row r="87" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4633,7 +4690,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="14.25" customHeight="1">
+    <row r="88" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4658,7 +4715,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="14.25" customHeight="1">
+    <row r="89" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4683,7 +4740,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="14.25" customHeight="1">
+    <row r="90" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4708,7 +4765,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="14.25" customHeight="1">
+    <row r="91" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4733,7 +4790,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="14.25" customHeight="1">
+    <row r="92" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4758,7 +4815,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="14.25" customHeight="1">
+    <row r="93" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4783,7 +4840,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="14.25" customHeight="1">
+    <row r="94" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4808,7 +4865,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="14.25" customHeight="1">
+    <row r="95" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4833,7 +4890,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="14.25" customHeight="1">
+    <row r="96" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4858,7 +4915,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="14.25" customHeight="1">
+    <row r="97" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4883,7 +4940,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="14.25" customHeight="1">
+    <row r="98" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4908,7 +4965,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="14.25" customHeight="1">
+    <row r="99" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4933,7 +4990,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="14.25" customHeight="1">
+    <row r="100" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4958,7 +5015,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="14.25" customHeight="1">
+    <row r="101" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4983,7 +5040,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="14.25" customHeight="1">
+    <row r="102" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5008,7 +5065,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="14.25" customHeight="1">
+    <row r="103" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5033,7 +5090,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="14.25" customHeight="1">
+    <row r="104" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5058,7 +5115,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="14.25" customHeight="1">
+    <row r="105" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5083,7 +5140,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="14.25" customHeight="1">
+    <row r="106" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5108,7 +5165,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="14.25" customHeight="1">
+    <row r="107" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5133,7 +5190,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="14.25" customHeight="1">
+    <row r="108" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5158,7 +5215,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="14.25" customHeight="1">
+    <row r="109" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5183,7 +5240,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="14.25" customHeight="1">
+    <row r="110" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5208,7 +5265,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="14.25" customHeight="1">
+    <row r="111" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5233,7 +5290,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="14.25" customHeight="1">
+    <row r="112" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5258,7 +5315,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="14.25" customHeight="1">
+    <row r="113" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5283,7 +5340,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="14.25" customHeight="1">
+    <row r="114" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5308,7 +5365,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="14.25" customHeight="1">
+    <row r="115" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5333,7 +5390,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="14.25" customHeight="1">
+    <row r="116" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5358,7 +5415,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="14.25" customHeight="1">
+    <row r="117" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5383,7 +5440,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="14.25" customHeight="1">
+    <row r="118" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5408,7 +5465,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="14.25" customHeight="1">
+    <row r="119" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5433,7 +5490,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="14.25" customHeight="1">
+    <row r="120" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5458,7 +5515,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="14.25" customHeight="1">
+    <row r="121" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5483,7 +5540,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="14.25" customHeight="1">
+    <row r="122" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5508,7 +5565,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="14.25" customHeight="1">
+    <row r="123" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5533,7 +5590,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="14.25" customHeight="1">
+    <row r="124" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5558,7 +5615,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="14.25" customHeight="1">
+    <row r="125" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5583,7 +5640,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="14.25" customHeight="1">
+    <row r="126" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5608,7 +5665,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="14.25" customHeight="1">
+    <row r="127" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5633,7 +5690,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="14.25" customHeight="1">
+    <row r="128" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5658,7 +5715,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="14.25" customHeight="1">
+    <row r="129" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5683,7 +5740,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="14.25" customHeight="1">
+    <row r="130" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5708,7 +5765,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="14.25" customHeight="1">
+    <row r="131" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5733,7 +5790,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="14.25" customHeight="1">
+    <row r="132" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5758,7 +5815,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="14.25" customHeight="1">
+    <row r="133" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5783,7 +5840,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="14.25" customHeight="1">
+    <row r="134" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5808,7 +5865,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="14.25" customHeight="1">
+    <row r="135" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5833,7 +5890,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="14.25" customHeight="1">
+    <row r="136" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5858,7 +5915,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="14.25" customHeight="1">
+    <row r="137" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5883,7 +5940,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="14.25" customHeight="1">
+    <row r="138" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5908,7 +5965,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="14.25" customHeight="1">
+    <row r="139" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5933,7 +5990,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="14.25" customHeight="1">
+    <row r="140" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5958,7 +6015,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="14.25" customHeight="1">
+    <row r="141" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5983,7 +6040,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="14.25" customHeight="1">
+    <row r="142" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6008,7 +6065,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="14.25" customHeight="1">
+    <row r="143" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6033,7 +6090,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="14.25" customHeight="1">
+    <row r="144" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6058,7 +6115,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="14.25" customHeight="1">
+    <row r="145" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6083,7 +6140,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="14.25" customHeight="1">
+    <row r="146" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6108,7 +6165,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="14.25" customHeight="1">
+    <row r="147" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6133,7 +6190,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="14.25" customHeight="1">
+    <row r="148" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6158,7 +6215,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="14.25" customHeight="1">
+    <row r="149" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6183,7 +6240,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="14.25" customHeight="1">
+    <row r="150" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6208,7 +6265,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="14.25" customHeight="1">
+    <row r="151" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6233,7 +6290,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="14.25" customHeight="1">
+    <row r="152" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6258,7 +6315,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="14.25" customHeight="1">
+    <row r="153" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6283,7 +6340,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="14.25" customHeight="1">
+    <row r="154" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6308,7 +6365,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="14.25" customHeight="1">
+    <row r="155" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6333,7 +6390,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="14.25" customHeight="1">
+    <row r="156" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6358,7 +6415,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="14.25" customHeight="1">
+    <row r="157" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6383,7 +6440,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="14.25" customHeight="1">
+    <row r="158" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6408,7 +6465,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="14.25" customHeight="1">
+    <row r="159" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6433,7 +6490,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="14.25" customHeight="1">
+    <row r="160" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6458,7 +6515,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="14.25" customHeight="1">
+    <row r="161" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6483,7 +6540,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="14.25" customHeight="1">
+    <row r="162" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6508,7 +6565,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="14.25" customHeight="1">
+    <row r="163" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6533,7 +6590,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="14.25" customHeight="1">
+    <row r="164" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6558,7 +6615,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="14.25" customHeight="1">
+    <row r="165" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6583,7 +6640,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="14.25" customHeight="1">
+    <row r="166" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6608,7 +6665,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="14.25" customHeight="1">
+    <row r="167" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6633,7 +6690,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="14.25" customHeight="1">
+    <row r="168" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6658,7 +6715,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="14.25" customHeight="1">
+    <row r="169" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6683,7 +6740,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="14.25" customHeight="1">
+    <row r="170" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6708,7 +6765,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="14.25" customHeight="1">
+    <row r="171" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6733,7 +6790,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="14.25" customHeight="1">
+    <row r="172" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6758,7 +6815,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="14.25" customHeight="1">
+    <row r="173" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6783,7 +6840,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="14.25" customHeight="1">
+    <row r="174" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6808,7 +6865,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="14.25" customHeight="1">
+    <row r="175" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6833,7 +6890,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="14.25" customHeight="1">
+    <row r="176" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6858,7 +6915,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="14.25" customHeight="1">
+    <row r="177" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6883,7 +6940,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="14.25" customHeight="1">
+    <row r="178" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6908,7 +6965,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="14.25" customHeight="1">
+    <row r="179" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6933,7 +6990,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="14.25" customHeight="1">
+    <row r="180" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6958,7 +7015,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="14.25" customHeight="1">
+    <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6983,7 +7040,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="14.25" customHeight="1">
+    <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7008,7 +7065,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="14.25" customHeight="1">
+    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7033,7 +7090,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="14.25" customHeight="1">
+    <row r="184" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7058,7 +7115,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="14.25" customHeight="1">
+    <row r="185" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7083,7 +7140,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="14.25" customHeight="1">
+    <row r="186" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7108,7 +7165,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="14.25" customHeight="1">
+    <row r="187" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7133,7 +7190,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="14.25" customHeight="1">
+    <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7158,7 +7215,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="14.25" customHeight="1">
+    <row r="189" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7183,7 +7240,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="14.25" customHeight="1">
+    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7208,7 +7265,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="14.25" customHeight="1">
+    <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7233,7 +7290,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="14.25" customHeight="1">
+    <row r="192" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7258,7 +7315,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="14.25" customHeight="1">
+    <row r="193" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7283,7 +7340,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="14.25" customHeight="1">
+    <row r="194" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7308,7 +7365,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="14.25" customHeight="1">
+    <row r="195" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7333,7 +7390,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="14.25" customHeight="1">
+    <row r="196" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7358,7 +7415,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="14.25" customHeight="1">
+    <row r="197" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7383,7 +7440,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="14.25" customHeight="1">
+    <row r="198" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7408,7 +7465,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="14.25" customHeight="1">
+    <row r="199" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7433,7 +7490,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="14.25" customHeight="1">
+    <row r="200" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7458,7 +7515,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="14.25" customHeight="1">
+    <row r="201" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7483,7 +7540,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="14.25" customHeight="1">
+    <row r="202" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7508,7 +7565,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="14.25" customHeight="1">
+    <row r="203" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7533,7 +7590,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="14.25" customHeight="1">
+    <row r="204" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7558,7 +7615,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="14.25" customHeight="1">
+    <row r="205" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7583,7 +7640,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="14.25" customHeight="1">
+    <row r="206" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7608,7 +7665,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23" ht="14.25" customHeight="1">
+    <row r="207" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7633,7 +7690,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" ht="14.25" customHeight="1">
+    <row r="208" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7658,7 +7715,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="1:23" ht="14.25" customHeight="1">
+    <row r="209" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7683,7 +7740,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23" ht="14.25" customHeight="1">
+    <row r="210" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7708,7 +7765,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23" ht="14.25" customHeight="1">
+    <row r="211" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7733,7 +7790,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="1:23" ht="14.25" customHeight="1">
+    <row r="212" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7758,7 +7815,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="1:23" ht="14.25" customHeight="1">
+    <row r="213" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7783,7 +7840,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="1:23" ht="14.25" customHeight="1">
+    <row r="214" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7808,7 +7865,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="1:23" ht="14.25" customHeight="1">
+    <row r="215" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7833,7 +7890,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="1:23" ht="14.25" customHeight="1">
+    <row r="216" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7858,7 +7915,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="1:23" ht="14.25" customHeight="1">
+    <row r="217" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7883,7 +7940,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="1:23" ht="14.25" customHeight="1">
+    <row r="218" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7908,7 +7965,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="1:23" ht="14.25" customHeight="1">
+    <row r="219" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7933,7 +7990,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="1:23" ht="14.25" customHeight="1">
+    <row r="220" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7958,7 +8015,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" spans="1:23" ht="14.25" customHeight="1">
+    <row r="221" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7983,7 +8040,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="1:23" ht="14.25" customHeight="1">
+    <row r="222" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8008,7 +8065,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="1:23" ht="14.25" customHeight="1">
+    <row r="223" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8033,7 +8090,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="1:23" ht="14.25" customHeight="1">
+    <row r="224" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8058,7 +8115,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="1:23" ht="14.25" customHeight="1">
+    <row r="225" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8083,7 +8140,7 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="1:23" ht="14.25" customHeight="1">
+    <row r="226" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8108,7 +8165,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="1:23" ht="14.25" customHeight="1">
+    <row r="227" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8133,7 +8190,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="1:23" ht="14.25" customHeight="1">
+    <row r="228" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8158,7 +8215,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="1:23" ht="14.25" customHeight="1">
+    <row r="229" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8183,7 +8240,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="1:23" ht="14.25" customHeight="1">
+    <row r="230" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8208,7 +8265,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="1:23" ht="14.25" customHeight="1">
+    <row r="231" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8233,7 +8290,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="1:23" ht="14.25" customHeight="1">
+    <row r="232" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8258,7 +8315,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="1:23" ht="14.25" customHeight="1">
+    <row r="233" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8283,7 +8340,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="1:23" ht="14.25" customHeight="1">
+    <row r="234" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8308,7 +8365,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="1:23" ht="14.25" customHeight="1">
+    <row r="235" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8333,7 +8390,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="1:23" ht="14.25" customHeight="1">
+    <row r="236" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8358,7 +8415,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="1:23" ht="14.25" customHeight="1">
+    <row r="237" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8383,7 +8440,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="1:23" ht="14.25" customHeight="1">
+    <row r="238" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8408,7 +8465,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="1:23" ht="14.25" customHeight="1">
+    <row r="239" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8433,15 +8490,7 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
+    <row r="240" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="I240" s="89"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
@@ -9224,7 +9273,7 @@
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="I1:I240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
